--- a/config_1.5/game_enter_btn_config.xlsx
+++ b/config_1.5/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="347">
   <si>
     <t>id|行号</t>
   </si>
@@ -1360,10 +1360,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>108#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>108#104#95#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1524,6 +1520,26 @@
   </si>
   <si>
     <t>106#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_left</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_shop_enter",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>118#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2104,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2158,10 +2174,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>342</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2173,6 +2189,17 @@
       </c>
       <c r="C5" s="7" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2622,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2646,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2657,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2668,10 +2695,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2765,7 @@
         <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3103,7 +3130,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3114,13 +3141,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3145,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3201,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4670,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4980,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5045,7 +5072,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5054,7 +5081,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5062,7 +5089,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5071,7 +5098,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5079,7 +5106,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5088,7 +5115,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5096,7 +5123,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5105,7 +5132,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5113,7 +5140,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5122,7 +5149,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5130,7 +5157,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5139,7 +5166,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5147,19 +5174,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5167,19 +5194,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5187,7 +5214,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5196,7 +5223,24 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>118</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5432,7 +5476,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5536,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5575,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5594,7 +5638,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5614,10 +5658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5689,10 +5733,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5708,7 +5752,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6">

--- a/config_1.5/game_enter_btn_config.xlsx
+++ b/config_1.5/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1519,10 +1519,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>106#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top_left</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1540,6 +1536,10 @@
   </si>
   <si>
     <t>118#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2122,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2174,10 +2174,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2199,7 +2199,7 @@
         <v>201</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3130,7 +3130,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3144,7 +3144,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
@@ -5231,7 +5231,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5240,7 +5240,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.5/game_enter_btn_config.xlsx
+++ b/config_1.5/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="352">
   <si>
     <t>id|行号</t>
   </si>
@@ -949,10 +949,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>top_right</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>center_top</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1519,27 +1515,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>充值商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>top_left</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>118#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_right</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏互导向斗地主</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>119#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"sys_by3d_shop_enter",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>充值商城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>118#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>102#</t>
+    <t>"act_ty_zp1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_040_by_and_cjj_to_ddz_conduct",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2122,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2186,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,10 +2194,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2185,10 +2205,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2196,10 +2216,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>201</v>
+        <v>344</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2554,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2642,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2633,7 +2653,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2651,10 +2671,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2662,10 +2682,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2673,10 +2693,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2684,10 +2704,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2695,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2762,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2937,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2975,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3074,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3112,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3119,7 +3139,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3130,7 +3150,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3141,13 +3161,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3166,13 +3186,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3186,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3204,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3228,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3530,7 +3550,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3710,7 +3730,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4317,7 +4337,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4343,7 +4363,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4377,7 +4397,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4394,7 +4414,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4411,7 +4431,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4419,7 +4439,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4428,7 +4448,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4436,7 +4456,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4453,7 +4473,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4462,7 +4482,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4479,7 +4499,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4555,7 +4575,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4564,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4572,7 +4592,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4598,7 +4618,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4606,7 +4626,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4615,7 +4635,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4623,7 +4643,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4632,7 +4652,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4640,7 +4660,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4649,7 +4669,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4657,7 +4677,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4666,7 +4686,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4674,7 +4694,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4683,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4691,19 +4711,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4711,7 +4731,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4720,7 +4740,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4728,7 +4748,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4737,7 +4757,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4745,7 +4765,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4754,7 +4774,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4762,7 +4782,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4771,7 +4791,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4779,7 +4799,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4788,7 +4808,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4796,7 +4816,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4805,7 +4825,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4813,7 +4833,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4822,7 +4842,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4830,7 +4850,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4839,7 +4859,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4847,7 +4867,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4856,7 +4876,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4864,7 +4884,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4874,7 +4894,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4882,7 +4902,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4891,7 +4911,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4899,7 +4919,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4908,7 +4928,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4916,7 +4936,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4925,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4933,7 +4953,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4942,7 +4962,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4950,7 +4970,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4959,7 +4979,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4967,7 +4987,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4976,7 +4996,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4984,7 +5004,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -4993,7 +5013,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5001,19 +5021,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5021,7 +5041,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5030,7 +5050,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5038,7 +5058,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5047,7 +5067,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5055,7 +5075,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5064,7 +5084,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5072,7 +5092,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5081,7 +5101,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5089,7 +5109,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5098,7 +5118,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5106,7 +5126,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5115,7 +5135,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5123,7 +5143,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5132,7 +5152,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5140,7 +5160,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5149,7 +5169,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5157,7 +5177,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5166,7 +5186,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5174,19 +5194,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5194,19 +5214,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5214,7 +5234,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5223,7 +5243,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5231,7 +5251,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5240,7 +5260,41 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5345,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5366,7 +5420,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5385,7 +5439,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5427,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +5530,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,7 +5541,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5563,10 +5617,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +5635,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5619,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5638,7 +5692,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5658,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5733,10 +5787,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5752,9 +5806,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>339</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
         <v>8</v>
